--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1065.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1065.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.045516610652142</v>
+        <v>1.042755364977401</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.275030455551267</v>
+        <v>1.267674530087844</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.3252843324475348</v>
+        <v>0.3263564739361609</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9208327805799902</v>
+        <v>0.9143858250558566</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.3252843324475348</v>
+        <v>0.3263564739361609</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9208327805799902</v>
+        <v>0.9143858250558566</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.3252843324475348</v>
+        <v>0.3263564739361609</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9208327805799902</v>
+        <v>0.9143858250558566</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.6212338386342632</v>
+        <v>0.6177999267158242</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.8996744851657983</v>
+        <v>0.8933660027767849</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.6212338386342632</v>
+        <v>0.6177999267158242</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.8996744851657983</v>
+        <v>0.8933660027767849</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.133980942565708</v>
+        <v>1.12928682855339</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.02594447111802785</v>
+        <v>0.02725935001076142</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.027355480869522</v>
+        <v>1.023673819969868</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.6755412002138472</v>
+        <v>0.6690086135653679</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9208327805799902</v>
+        <v>0.9143858250558566</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9140712056204108</v>
+        <v>0.9076839057871664</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9073096306608315</v>
+        <v>0.9009819865184762</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.6212338386342632</v>
+        <v>0.6177999267158242</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.8996744851657983</v>
+        <v>0.8933660027767849</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.6212338386342632</v>
+        <v>0.6177999267158242</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.7566103575586836</v>
+        <v>0.7491966836002112</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.03459262815737046</v>
+        <v>0.03634580001434855</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.023982309922673</v>
+        <v>1.019057129821703</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.6540975964498229</v>
+        <v>0.6475944604564704</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9208327805799902</v>
+        <v>0.9143858250558566</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8161054944977451</v>
+        <v>0.8090121946882149</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7113782084154998</v>
+        <v>0.7036385643205734</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.6212338386342632</v>
+        <v>0.6177999267158242</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.8996744851657983</v>
+        <v>0.8933660027767849</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.6212338386342632</v>
+        <v>0.6177999267158242</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7113782084154991</v>
+        <v>0.7036385643205731</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.03619890003682259</v>
+        <v>0.03854422389442735</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>0.9892054960549184</v>
+        <v>0.983722938904768</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.05275928759289608</v>
+        <v>0.05537002909296766</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9526438930418067</v>
+        <v>0.9466429549254589</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.07016957474199682</v>
+        <v>0.07302716432121011</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9073096306608315</v>
+        <v>0.9009819865184762</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.09175731873293744</v>
+        <v>0.09477048261024948</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.8556521128672745</v>
+        <v>0.8491359203033726</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.1163561367298693</v>
+        <v>0.1194590855698226</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.7989763063306939</v>
+        <v>0.7923812105684716</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.6212338386342632</v>
+        <v>0.6177999267158242</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1433446160330029</v>
+        <v>0.1464851378245374</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.7385832749186059</v>
+        <v>0.7319904940728683</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1721032024197115</v>
+        <v>0.1752426218700628</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.6755412002138472</v>
+        <v>0.6690086135653679</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>12.42467677268526</v>
+        <v>12.35599853431648</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.2021232379934061</v>
+        <v>0.205233993540301</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.6540975964498229</v>
+        <v>0.6475944604564704</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.5712338386342631</v>
+        <v>0.5677999267158241</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.55</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.55</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1621529444876741</v>
+        <v>0.1703709375672589</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1621529444876741</v>
+        <v>0.1703709375672589</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.55</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.55</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1621529444876741</v>
+        <v>0.1703709375672589</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.3243058889753481</v>
+        <v>0.3407418751345177</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.06023519547945483</v>
+        <v>0.08244089550295502</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.384541084454803</v>
+        <v>0.4231827706374727</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.242029066705512</v>
+        <v>1.261935389890523</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>1.626570151160315</v>
+        <v>1.685118160527996</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>2.611543072365112</v>
+        <v>2.648570284236367</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>4.238113223525427</v>
+        <v>4.333688444764364</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>6.476323197282185</v>
+        <v>6.522995486711813</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>10.71443642080761</v>
+        <v>10.85668393147618</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>14.75929079815912</v>
+        <v>14.81316177574387</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>25.47372721896673</v>
+        <v>25.66984570722005</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>32.38617516376033</v>
+        <v>32.43126270565774</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>57.85990238272706</v>
+        <v>58.10110841287779</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>69.0206073281006</v>
+        <v>69.01796170926096</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>126.8805097108277</v>
+        <v>127.1190701221387</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>144.0961707537342</v>
+        <v>143.9585840171436</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>270.9766804645619</v>
+        <v>271.0776541392823</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>73.52092719094054</v>
+        <v>73.41995351622006</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
